--- a/Munkafüzet3.xlsx
+++ b/Munkafüzet3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zöld Füst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D154TAN-03\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45674578-9718-4788-9BB6-8875C496241F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6FE52-F14B-468F-8B9B-D315C96E9B88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Lakosok" sheetId="2" r:id="rId2"/>
     <sheet name="Szolgáltatások" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="129">
   <si>
     <t>nev</t>
   </si>
@@ -381,6 +381,39 @@
   </si>
   <si>
     <t>kapcsolodo_epulet_azonosito</t>
+  </si>
+  <si>
+    <t>Épületek típusa</t>
+  </si>
+  <si>
+    <t>Darabszám</t>
+  </si>
+  <si>
+    <t>Százaléka az épülteknek</t>
+  </si>
+  <si>
+    <t>eletkorok</t>
+  </si>
+  <si>
+    <t>18 - 30</t>
+  </si>
+  <si>
+    <t>0 - 17</t>
+  </si>
+  <si>
+    <t>31 - 45</t>
+  </si>
+  <si>
+    <t>46 - 60</t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>Nincs</t>
+  </si>
+  <si>
+    <t>Százalék</t>
   </si>
 </sst>
 </file>
@@ -417,9 +450,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -435,6 +469,1955 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Épületek</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> Típusai</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38588593552877715"/>
+          <c:y val="3.6786097735386138E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Épületek!$F$4:$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>lakóház</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sportcenter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kórház</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>uszoda</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Börtön</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Üzlet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pláza</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>irodaház</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>játékterem</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>iskola</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Templom</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Buszpályaudvar</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>étterem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Épületek!$H$4:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7739-422B-8B58-5E9A8D4C539C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1426303184"/>
+        <c:axId val="1412898816"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1426303184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1412898816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1412898816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1426303184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Lakosok életkora</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Lakosok!$H$3:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0 - 17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18 - 30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31 - 45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46 - 60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lakosok!$H$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3235294117647059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20588235294117646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BEF-4400-9825-FFBE151DCA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947D4D43-B77F-43A7-A0EE-E50CCDF5EC8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB78F05B-E558-442C-A3A8-168B2B019A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,9 +2729,12 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +2748,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -775,8 +2761,17 @@
       <c r="D2">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -790,7 +2785,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -803,8 +2798,18 @@
       <c r="D4">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2">
+        <f>G4/24</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -817,8 +2822,18 @@
       <c r="D5">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H16" si="0">G5/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -831,8 +2846,18 @@
       <c r="D6">
         <v>15000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -845,8 +2870,18 @@
       <c r="D7">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -859,8 +2894,18 @@
       <c r="D8">
         <v>8000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -873,8 +2918,18 @@
       <c r="D9">
         <v>12000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -887,8 +2942,18 @@
       <c r="D10">
         <v>18000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -901,8 +2966,18 @@
       <c r="D11">
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -915,8 +2990,18 @@
       <c r="D12">
         <v>1300</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -929,8 +3014,18 @@
       <c r="D13">
         <v>40000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -943,8 +3038,18 @@
       <c r="D14">
         <v>700</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -957,8 +3062,18 @@
       <c r="D15">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -970,6 +3085,16 @@
       </c>
       <c r="D16">
         <v>32000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,15 +3226,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,9 +3243,11 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,8 +3260,11 @@
       <c r="D1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1146,8 +3277,12 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>2025-B2</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1160,8 +3295,27 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E35" si="0">2025-B3</f>
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1174,8 +3328,30 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1188,8 +3364,35 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="2">
+        <f>H4/34</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:L5" si="1">I4/34</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1202,8 +3405,12 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1216,8 +3423,12 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1230,8 +3441,12 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1244,8 +3459,12 @@
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1258,8 +3477,12 @@
       <c r="D10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1272,8 +3495,12 @@
       <c r="D11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1286,8 +3513,12 @@
       <c r="D12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1300,8 +3531,12 @@
       <c r="D13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1314,8 +3549,12 @@
       <c r="D14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1328,8 +3567,12 @@
       <c r="D15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1342,8 +3585,12 @@
       <c r="D16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1356,8 +3603,12 @@
       <c r="D17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1370,8 +3621,12 @@
       <c r="D18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1384,8 +3639,12 @@
       <c r="D19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1398,8 +3657,12 @@
       <c r="D20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1412,8 +3675,12 @@
       <c r="D21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1426,8 +3693,12 @@
       <c r="D22">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1440,8 +3711,12 @@
       <c r="D23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1454,8 +3729,12 @@
       <c r="D24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1468,8 +3747,12 @@
       <c r="D25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1482,8 +3765,12 @@
       <c r="D26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1496,8 +3783,12 @@
       <c r="D27">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1510,8 +3801,12 @@
       <c r="D28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -1524,8 +3819,12 @@
       <c r="D29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -1538,8 +3837,12 @@
       <c r="D30">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -1552,8 +3855,12 @@
       <c r="D31">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -1561,13 +3868,17 @@
         <v>2024</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -1580,8 +3891,12 @@
       <c r="D33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1594,8 +3909,12 @@
       <c r="D34">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -1608,9 +3927,14 @@
       <c r="D35">
         <v>23</v>
       </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
